--- a/biology/Zoologie/Chalicotherium/Chalicotherium.xlsx
+++ b/biology/Zoologie/Chalicotherium/Chalicotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalicotherium (« animal du gravier » en grec, prononcé calicotériom à la française et parfois francisé en « chalicothère ») est un genre éteint de périssodactyles, de la famille des Chalicotheriidae qui a vécu en Europe au cours du Miocène, entre -15 et −8 millions d'années.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chalicotherium goldfussi : maxillaire gauche avec P-M3 vu de dessus Col. MHNT
@@ -546,7 +560,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anisodon grande (H. Filhol, 1850) ;
 Chalicotherium goldfussi (J. J. Kaup, 1833) ;
@@ -580,7 +596,9 @@
           <t>Occurrence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Environ trente spécimens de Chalicotherium ont été découverts.
 </t>
